--- a/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006942</t>
+          <t>003986</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合A</t>
+          <t>申万菱信中证500指数优选增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>14.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006943</t>
+          <t>005674</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合C</t>
+          <t>诺德消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.20</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004936</t>
+          <t>004937</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中航混改精选混合A</t>
+          <t>中航混改精选混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.03</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004937</t>
+          <t>004936</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中航混改精选混合C</t>
+          <t>中航混改精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>91.03</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.59</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>9</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007794</t>
+          <t>005947</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强C</t>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003986</t>
+          <t>006942</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信中证500指数优选增强A</t>
+          <t>华泰柏瑞量化明选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.79</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>007794</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>申万菱信中证500指数优选增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.12</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,25 +768,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005947</t>
+          <t>005948</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>90.99</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>0.93</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>10</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005948</t>
+          <t>006943</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
+          <t>华泰柏瑞量化明选混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.99</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,25 +900,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>000311</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>景顺长城沪深300指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>48.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0557</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005258</t>
+          <t>001974</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城量化平衡灵活配置混合</t>
+          <t>景顺长城量化新动力股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>89.36</t>
+          <t>8.72</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2136</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005325</t>
+          <t>005674</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城泰恒回报灵活配置混合A</t>
+          <t>诺德消费升级灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.01</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005326</t>
+          <t>007143</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城泰恒回报灵活配置混合C</t>
+          <t>国投瑞银沪深300指数量化增强A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.01</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>89.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005674</t>
+          <t>001050</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺德消费升级灵活配置混合</t>
+          <t>汇添富成长多因子量化策略股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.16</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006063</t>
+          <t>005325</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城MSCI中国A股国际通指数增强</t>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.35</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>9</v>
       </c>
     </row>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000311</t>
+          <t>005258</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城沪深300指数增强</t>
+          <t>景顺长城量化平衡灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000411</t>
+          <t>006063</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城优质成长</t>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1024,15 +1214,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>91.09</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1.82</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>005326</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006942</t>
+          <t>000411</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合A</t>
+          <t>景顺长城优质成长</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006943</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化明选混合C</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>92.34</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>007143</t>
+          <t>006942</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>国投瑞银沪深300指数量化增强A</t>
+          <t>华泰柏瑞量化明选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>89.26</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1164,15 +1404,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>89.26</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.34</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001974</t>
+          <t>006943</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城量化新动力股票</t>
+          <t>华泰柏瑞量化明选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1467,4 +1468,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1562,4 +1563,590 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0107</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>450008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国富沪深300指数增强</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城优质成长</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>66.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2149,4 +2150,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2158,7 +2159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2169,17 +2170,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2189,14 +2210,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.72</v>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7024</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2205,14 +2248,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.08</v>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2221,14 +2286,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.58</v>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2237,13 +2324,871 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001201</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002670</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001727</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>22.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002671</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>万家沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001073</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>56.17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>62.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>23</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3087,7 +3088,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3098,17 +3099,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3118,14 +3139,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>23</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.79</v>
+          <t>001304</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信鑫安回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3134,14 +3177,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.72</v>
+          <t>002585</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信兴利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1063</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -3150,14 +3215,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.08</v>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -3166,14 +3253,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.58</v>
+          <t>003831</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信鑫瑞回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -3182,13 +3291,509 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3676,7 +3677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,17 +3688,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3707,14 +3728,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.75</v>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3723,14 +3766,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.79</v>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3739,14 +3804,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.72</v>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3755,14 +3842,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.08</v>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3771,14 +3880,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>15</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.58</v>
+          <t>011501</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -3787,13 +3918,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011502</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>方正富邦汇福一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.33</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>3.79</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
-        <v>1.72</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1.58</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005396</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中金丰硕混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1073,7 +1298,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1661,7 +1886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2589,7 +2814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3175,7 +3400,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3269,7 +3494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3895,7 +4120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
+++ b/数据整理/stocks/A股/深证主板/002736-国信证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>3.79</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>1.72</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1.58</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -616,7 +633,575 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1519</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺德消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005947</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005948</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦民裕进取量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>013659</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013660</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中融金融鑫选3个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -824,7 +1409,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1298,7 +1883,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1886,7 +2471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2814,7 +3399,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3400,7 +3985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3494,7 +4079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4118,402 +4703,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003986</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.20</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1519</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005674</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺德消费升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1035</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004937</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>中航混改精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0331</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004936</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中航混改精选混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005947</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006942</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化明选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0078</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007794</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>申万菱信中证500指数优选增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>90.79</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0030</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005948</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>德邦民裕进取量化精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>006943</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化明选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.37</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>